--- a/InventoryWiz/InventoryWiz/bin/Debug/documents/INVENTORY_FULL.xlsx
+++ b/InventoryWiz/InventoryWiz/bin/Debug/documents/INVENTORY_FULL.xlsx
@@ -185,7 +185,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1029"/>
+  <dimension ref="A1:F1030"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0" rightToLeft="false">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -33089,17 +33089,17 @@
     <row customFormat="false" ht="13.8" hidden="false" customHeight="false" collapsed="false" outlineLevel="0" r="1029">
       <c r="A1029" s="9" t="inlineStr">
         <is>
-          <t>1002SET</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="B1029" s="9" t="inlineStr">
         <is>
-          <t>1002 set</t>
+          <t>set ABC</t>
         </is>
       </c>
       <c r="C1029" s="9" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D1029" s="9" t="inlineStr">
@@ -33114,11 +33114,42 @@
       </c>
       <c r="F1029" s="9" t="inlineStr">
         <is>
-          <t>-5</t>
-        </is>
-      </c>
-    </row>
-    <row r="1030" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="false" ht="13.8" hidden="false" customHeight="false" collapsed="false" outlineLevel="0" r="1030">
+      <c r="A1030" s="9" t="inlineStr">
+        <is>
+          <t>XYZ</t>
+        </is>
+      </c>
+      <c r="B1030" s="9" t="inlineStr">
+        <is>
+          <t>SET XYZ</t>
+        </is>
+      </c>
+      <c r="C1030" s="9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D1030" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E1030" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F1030" s="9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
     <row r="1031" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1032" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1033" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/InventoryWiz/InventoryWiz/bin/Debug/documents/INVENTORY_FULL.xlsx
+++ b/InventoryWiz/InventoryWiz/bin/Debug/documents/INVENTORY_FULL.xlsx
@@ -185,7 +185,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1030"/>
+  <dimension ref="A1:F1029"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0" rightToLeft="false">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -33089,12 +33089,12 @@
     <row customFormat="false" ht="13.8" hidden="false" customHeight="false" collapsed="false" outlineLevel="0" r="1029">
       <c r="A1029" s="9" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>asd</t>
         </is>
       </c>
       <c r="B1029" s="9" t="inlineStr">
         <is>
-          <t>set ABC</t>
+          <t>asdf</t>
         </is>
       </c>
       <c r="C1029" s="9" t="inlineStr">
@@ -33118,38 +33118,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="false" ht="13.8" hidden="false" customHeight="false" collapsed="false" outlineLevel="0" r="1030">
-      <c r="A1030" s="9" t="inlineStr">
-        <is>
-          <t>XYZ</t>
-        </is>
-      </c>
-      <c r="B1030" s="9" t="inlineStr">
-        <is>
-          <t>SET XYZ</t>
-        </is>
-      </c>
-      <c r="C1030" s="9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D1030" s="9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E1030" s="9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F1030" s="9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
+    <row r="1030" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1031" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1032" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1033" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/InventoryWiz/InventoryWiz/bin/Debug/documents/INVENTORY_FULL.xlsx
+++ b/InventoryWiz/InventoryWiz/bin/Debug/documents/INVENTORY_FULL.xlsx
@@ -185,7 +185,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1029"/>
+  <dimension ref="A1:F1030"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0" rightToLeft="false">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -33118,7 +33118,38 @@
         </is>
       </c>
     </row>
-    <row r="1030" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row customFormat="false" ht="13.8" hidden="false" customHeight="false" collapsed="false" outlineLevel="0" r="1030">
+      <c r="A1030" s="9" t="inlineStr">
+        <is>
+          <t>xyz123</t>
+        </is>
+      </c>
+      <c r="B1030" s="9" t="inlineStr">
+        <is>
+          <t>xyz123 set</t>
+        </is>
+      </c>
+      <c r="C1030" s="9" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="D1030" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E1030" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F1030" s="9" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+    </row>
     <row r="1031" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1032" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1033" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/InventoryWiz/InventoryWiz/bin/Debug/documents/INVENTORY_FULL.xlsx
+++ b/InventoryWiz/InventoryWiz/bin/Debug/documents/INVENTORY_FULL.xlsx
@@ -185,7 +185,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1030"/>
+  <dimension ref="A1:F1034"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0" rightToLeft="false">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -33114,7 +33114,7 @@
       </c>
       <c r="F1029" s="9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -33150,10 +33150,134 @@
         </is>
       </c>
     </row>
-    <row r="1031" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1032" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1033" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1034" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row customFormat="false" ht="13.8" hidden="false" customHeight="false" collapsed="false" outlineLevel="0" r="1031">
+      <c r="A1031" s="9" t="inlineStr">
+        <is>
+          <t>VVV111</t>
+        </is>
+      </c>
+      <c r="B1031" s="9" t="inlineStr">
+        <is>
+          <t>VVV111 SET</t>
+        </is>
+      </c>
+      <c r="C1031" s="9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D1031" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E1031" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F1031" s="9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="false" ht="13.8" hidden="false" customHeight="false" collapsed="false" outlineLevel="0" r="1032">
+      <c r="A1032" s="9" t="inlineStr">
+        <is>
+          <t>FFG123</t>
+        </is>
+      </c>
+      <c r="B1032" s="9" t="inlineStr">
+        <is>
+          <t>FFG 123 Set</t>
+        </is>
+      </c>
+      <c r="C1032" s="9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D1032" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E1032" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F1032" s="9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="false" ht="13.8" hidden="false" customHeight="false" collapsed="false" outlineLevel="0" r="1033">
+      <c r="A1033" s="9" t="inlineStr">
+        <is>
+          <t>JHHK</t>
+        </is>
+      </c>
+      <c r="B1033" s="9" t="inlineStr">
+        <is>
+          <t>JHHK Set</t>
+        </is>
+      </c>
+      <c r="C1033" s="9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D1033" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E1033" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F1033" s="9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="false" ht="13.8" hidden="false" customHeight="false" collapsed="false" outlineLevel="0" r="1034">
+      <c r="A1034" s="9" t="inlineStr">
+        <is>
+          <t>980FFF</t>
+        </is>
+      </c>
+      <c r="B1034" s="9" t="inlineStr">
+        <is>
+          <t>980FFF</t>
+        </is>
+      </c>
+      <c r="C1034" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1034" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E1034" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F1034" s="9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
     <row r="1035" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1036" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1037" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
